--- a/children/ValueSet-IndicatorCodesChildren.xlsx
+++ b/children/ValueSet-IndicatorCodesChildren.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,6 +42,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>SundhedsplejeIndikatorkoder</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-30T15:40:30+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -96,97 +99,43 @@
     <t>2c39af9f-8e45-4c88-962f-e7a9e2cd31b6</t>
   </si>
   <si>
-    <t>bee30064-8436-4762-83ed-e47d65f23fc6</t>
-  </si>
-  <si>
-    <t>e88ddd81-4aa5-4c84-89fb-52de961a7c17</t>
-  </si>
-  <si>
-    <t>0701a892-2e6b-4b76-a041-97ceda78f973</t>
-  </si>
-  <si>
-    <t>bfc7062e-d529-4516-a698-fc87b339033a</t>
-  </si>
-  <si>
-    <t>5f4a21bb-6314-477a-a0fe-7924ff83954a</t>
-  </si>
-  <si>
-    <t>2a8ebbc5-a4f0-485c-850f-1e95db492a6f</t>
-  </si>
-  <si>
-    <t>c61e0e57-b1fd-4e4a-9eb9-5086b14b7504</t>
-  </si>
-  <si>
-    <t>5697e7df-3009-44d2-a495-ca8e4da167fb</t>
-  </si>
-  <si>
-    <t>550cad89-6036-453f-9536-d1adb4eae879</t>
-  </si>
-  <si>
-    <t>1c4b0adf-cd19-42af-ba43-80c28fcbc7e3</t>
-  </si>
-  <si>
-    <t>c05a5706-c0df-4a66-a6a1-a01e948d9326</t>
-  </si>
-  <si>
-    <t>0e24a41d-6bb6-4c84-89e1-5635cd4ea481</t>
-  </si>
-  <si>
-    <t>998d1b1e-b165-43c9-861f-0b620f753df3</t>
-  </si>
-  <si>
-    <t>a3e32326-283d-47db-af92-3d8554fb7977</t>
-  </si>
-  <si>
-    <t>dfa9a5e4-c542-4491-8a4b-1dee0bab8b17</t>
-  </si>
-  <si>
-    <t>f8d7fba7-acc4-4481-bb8d-4b3112f411a9</t>
-  </si>
-  <si>
-    <t>d240cad7-04ca-4f36-9dd7-86fb1987856a</t>
-  </si>
-  <si>
-    <t>51a91eca-5a66-4e1a-bbf7-be4ccf12810f</t>
-  </si>
-  <si>
-    <t>58464451-5fbb-4607-871d-1e01212c38d7</t>
-  </si>
-  <si>
-    <t>7dbe4d6a-a486-4d8a-bd85-d8803ecb9688</t>
-  </si>
-  <si>
-    <t>877a3705-ddd4-4e54-a6eb-f94a95276f99</t>
-  </si>
-  <si>
-    <t>da541ade-cbc9-4377-bff7-5ec153c93a89</t>
-  </si>
-  <si>
-    <t>20a41422-1ea1-483e-8070-7ffd79c493c0</t>
-  </si>
-  <si>
-    <t>089c064d-3e14-47d2-9e34-b753fcf18c7a</t>
-  </si>
-  <si>
-    <t>933d7ded-0c10-48e0-9645-b84b7c8946c7</t>
-  </si>
-  <si>
-    <t>ae0bc3c6-7084-4e62-8e83-427f14a09646</t>
-  </si>
-  <si>
-    <t>aeded840-d8da-408e-bb6d-d2d8560a6b79</t>
-  </si>
-  <si>
-    <t>d59a5f7f-805c-44a6-9ab7-a4e7a1d9bd1e</t>
-  </si>
-  <si>
-    <t>5a517611-64d6-4ebd-af33-f2b30d0ad874</t>
-  </si>
-  <si>
-    <t>9069b5aa-d62c-48f9-a0d9-d17ecd12920a</t>
-  </si>
-  <si>
-    <t>6be08133-feca-4d2f-a45d-cb36d141011e</t>
+    <t>58997614-ba43-4534-90bd-10c7e76802f4</t>
+  </si>
+  <si>
+    <t>7e7fab2f-278a-4b14-9bc9-efc36fffcba5</t>
+  </si>
+  <si>
+    <t>68605f88-49fb-44b9-b327-86947af6aa93</t>
+  </si>
+  <si>
+    <t>763c6f21-5467-4713-82fb-716c9d0a1fdf</t>
+  </si>
+  <si>
+    <t>653c2b0b-bb64-4906-888b-aea6fef3c3f8</t>
+  </si>
+  <si>
+    <t>73f981f8-455a-4158-b435-7c6d83ab84da</t>
+  </si>
+  <si>
+    <t>e04f2ca1-888a-4671-a97a-371b525cd2a3</t>
+  </si>
+  <si>
+    <t>b331fe02-a781-4abd-b6db-9331d6a69b15</t>
+  </si>
+  <si>
+    <t>a22c4b53-b622-4394-ba13-910a7b0d7b0d</t>
+  </si>
+  <si>
+    <t>01fddd46-ed7c-423d-b191-ffdd977dd61e</t>
+  </si>
+  <si>
+    <t>28972d4b-fea3-42ec-b2a5-e2a26f79b14d</t>
+  </si>
+  <si>
+    <t>76891f7b-cf49-4cb2-88d6-728a509eb75d</t>
+  </si>
+  <si>
+    <t>e61e4dab-54bb-4bf4-9b76-8d991cf4de08</t>
   </si>
   <si>
     <t/>
@@ -376,75 +325,75 @@
         <v>8</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -454,7 +403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,218 +415,110 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="B17" t="s" s="2">
         <v>43</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/children/ValueSet-IndicatorCodesChildren.xlsx
+++ b/children/ValueSet-IndicatorCodesChildren.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-21T14:15:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-IndicatorCodesChildren.xlsx
+++ b/children/ValueSet-IndicatorCodesChildren.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:15:43+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-IndicatorCodesChildren.xlsx
+++ b/children/ValueSet-IndicatorCodesChildren.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-24T13:11:12+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-IndicatorCodesChildren.xlsx
+++ b/children/ValueSet-IndicatorCodesChildren.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T13:11:12+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-IndicatorCodesChildren.xlsx
+++ b/children/ValueSet-IndicatorCodesChildren.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-07-01T22:52:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -136,9 +142,6 @@
   </si>
   <si>
     <t>e61e4dab-54bb-4bf4-9b76-8d991cf4de08</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -278,7 +281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -380,20 +383,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -415,110 +426,110 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/children/ValueSet-IndicatorCodesChildren.xlsx
+++ b/children/ValueSet-IndicatorCodesChildren.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from FBOE" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T22:52:03+02:00</t>
+    <t>2024-10-31T20:37:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
